--- a/biology/Zoologie/Cuniculus_paca/Cuniculus_paca.xlsx
+++ b/biology/Zoologie/Cuniculus_paca/Cuniculus_paca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agouti paca · Paca
 Le Paca (Cuniculus paca) est un gros rongeur de la famille des Cuniculidae que l'on rencontre en Amérique tropicale et subtropicale, depuis le Sud-est du Mexique jusqu'au Paraguay. Il existe une autre espèce de paca : le Paca des montagnes.
@@ -513,11 +525,13 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuniculus paca forme, avec le paca de montagne (Cuniculus taczanowskii), le genre Cuniculus et la famille des Cuniculidae.
-Synonymes scientifiques : Cavia paca L. ou Agouti paca (Linné, 1758)[2],[3].
-Noms vernaculaires en français : paca[4],[5],[6],[3],[2], pak[3], acouchi[3].
+Synonymes scientifiques : Cavia paca L. ou Agouti paca (Linné, 1758),.
+Noms vernaculaires en français : paca pak, acouchi.
 L'espèce est encore connue sous de nombreux autres noms : halep[réf. souhaitée] (?), majaz[réf. souhaitée] (Pérou), lapa (Colombie, Venezuela)[réf. souhaitée], guagua (Colombie). tepescuintle ou tepescuincle (Mexique, du nahuatl tepeitzcuintli, qui signifie littéralement « chien de colline » (tepetl : mont, montagne, colline ; itzcuintli : chien), jochi pintado (Bolivie)[réf. nécessaire]…
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps du paca mesure entre 60 et 80 cm de longueur, la queue a 2 ou 3 cm. Il pèse entre 7 et 12 kg. Il est couvert d'une fourrure brunâtre ou orangée, avec des taches blanches arrondies.
 </t>
@@ -578,10 +594,12 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit à proximité des cours d'eau des forêts tropicales, depuis le Sud-est du Mexique jusqu'au Paraguay, à moins de 2 000 m d'altitude. Il a des habitudes nocturnes. Excellent nageur, il s'alimente de végétaux divers (tubercules, rhizomes, feuilles, graines et fruits). Il passe la journée dans son terrier construit avec de multiples sorties dissimulées par le feuillage.
-Il est l'objet de chasse, car sa chair est très savoureuse, ce qui, associé à la destruction de son environnement, peut localement menacer sa survie en tant qu'espèce[7].
+Il est l'objet de chasse, car sa chair est très savoureuse, ce qui, associé à la destruction de son environnement, peut localement menacer sa survie en tant qu'espèce.
 </t>
         </is>
       </c>
